--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="8400" activeTab="6"/>
+    <workbookView windowWidth="23445" windowHeight="8400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
-    <sheet name="登陆" sheetId="3" r:id="rId2"/>
+    <sheet name="登录" sheetId="3" r:id="rId2"/>
     <sheet name="充值" sheetId="2" r:id="rId3"/>
     <sheet name="提现" sheetId="4" r:id="rId4"/>
     <sheet name="业务流" sheetId="6" r:id="rId5"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>case_id</t>
   </si>
   <si>
     <t>postman_expected</t>
@@ -208,6 +211,9 @@
 }</t>
   </si>
   <si>
+    <t>{"code":1,"msg":"手机号码为空"}</t>
+  </si>
+  <si>
     <t>{
     "code": 1,
     "msg": "手机号码为空",
@@ -279,9 +285,6 @@
 }</t>
   </si>
   <si>
-    <t>case_id</t>
-  </si>
-  <si>
     <t>interface</t>
   </si>
   <si>
@@ -612,10 +615,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -662,18 +665,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,14 +682,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,14 +712,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -723,7 +719,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,6 +764,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -745,16 +779,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,30 +796,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,13 +811,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,61 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,19 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,13 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,19 +919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,13 +949,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,13 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,6 +1031,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1046,8 +1064,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,8 +1097,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,21 +1128,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1133,10 +1136,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,137 +1148,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,15 +1302,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1668,10 +1668,10 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:7">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1683,7 +1683,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1691,10 +1691,10 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1714,10 +1714,10 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1734,10 +1734,10 @@
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1754,10 +1754,10 @@
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1774,10 +1774,10 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1794,10 +1794,10 @@
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1814,10 +1814,10 @@
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1834,10 +1834,10 @@
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1854,10 +1854,10 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1874,10 +1874,10 @@
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1889,15 +1889,15 @@
       <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1914,10 +1914,10 @@
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1945,13 +1945,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="5.75" customWidth="1"/>
@@ -1964,7 +1964,7 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1985,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="104" customHeight="1" spans="1:8">
@@ -1993,22 +1993,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>50</v>
+      <c r="H2" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:8">
@@ -2016,22 +2016,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:8">
@@ -2039,22 +2039,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:8">
@@ -2062,22 +2062,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>61</v>
+      <c r="H5" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:8">
@@ -2085,22 +2085,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>64</v>
+      <c r="H6" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="81" spans="1:8">
@@ -2108,44 +2108,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="6:6">
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="6:6">
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="6:6">
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="6:6">
-      <c r="F14" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2158,8 +2137,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -2178,10 +2157,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -2202,7 +2181,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -2210,25 +2189,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -2236,25 +2215,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -2262,25 +2241,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -2288,25 +2267,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2314,22 +2293,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2337,22 +2316,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2360,22 +2339,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2383,22 +2362,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2406,22 +2385,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2429,22 +2408,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" s="7" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2452,22 +2431,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2475,22 +2454,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2498,22 +2477,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2521,22 +2500,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2544,22 +2523,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2593,10 +2572,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -2617,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -2625,25 +2604,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -2651,25 +2630,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="F3" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -2677,25 +2656,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
@@ -2703,25 +2682,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2729,22 +2708,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2752,22 +2731,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2775,22 +2754,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2798,22 +2777,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2821,22 +2800,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2844,22 +2823,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" s="7" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2867,22 +2846,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2890,22 +2869,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2913,22 +2892,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
@@ -2936,22 +2915,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2959,22 +2938,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3021,10 +3000,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -3051,25 +3030,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3077,25 +3056,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3103,25 +3082,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3129,22 +3108,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3152,22 +3131,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3175,22 +3154,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3198,22 +3177,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3221,19 +3200,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>39</v>
@@ -3250,7 +3229,7 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3267,10 +3246,10 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -3291,7 +3270,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3299,22 +3278,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3322,19 +3301,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="83" customHeight="1" spans="1:9">
@@ -3342,22 +3321,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3365,16 +3344,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" ht="93" customHeight="1" spans="1:9">
@@ -3382,19 +3361,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="7:7">
@@ -3431,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="8400" activeTab="1"/>
+    <workbookView windowWidth="23445" windowHeight="8400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="181">
   <si>
     <t>id</t>
   </si>
@@ -474,6 +474,27 @@
     <t>提现金额-非数字</t>
   </si>
   <si>
+    <t>extract_data</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":#phone#,"pwd":#passwd#,"type":0,"reg_name":"美丽可爱的小简"}</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"#passwd#"}</t>
+  </si>
+  <si>
+    <t>{"member_id":"$..id","token":"$..token"}</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
     <t>update_name</t>
   </si>
   <si>
@@ -616,9 +637,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -665,19 +686,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,7 +709,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,7 +723,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,61 +745,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -788,6 +762,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -796,7 +810,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,7 +832,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,55 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,13 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,97 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,17 +1052,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,15 +1074,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,13 +1126,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,149 +1157,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,6 +1320,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1630,7 +1663,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1668,10 +1701,10 @@
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:7">
-      <c r="A2" s="11">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1691,10 +1724,10 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1714,10 +1747,10 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="11">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1734,10 +1767,10 @@
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="11">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1754,10 +1787,10 @@
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="11">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1774,10 +1807,10 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="11">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1794,10 +1827,10 @@
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="11">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1814,10 +1847,10 @@
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1834,10 +1867,10 @@
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="11">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1854,10 +1887,10 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="11">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1874,10 +1907,10 @@
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="11">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1889,15 +1922,15 @@
       <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="11">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1914,10 +1947,10 @@
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="11">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1947,8 +1980,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -2191,7 +2224,7 @@
       <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2200,7 +2233,7 @@
       <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2217,7 +2250,7 @@
       <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2226,7 +2259,7 @@
       <c r="E3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2243,7 +2276,7 @@
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2252,7 +2285,7 @@
       <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2269,7 +2302,7 @@
       <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2278,7 +2311,7 @@
       <c r="E5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="13" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2295,7 +2328,7 @@
       <c r="B6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2304,7 +2337,7 @@
       <c r="E6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2318,7 +2351,7 @@
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2327,7 +2360,7 @@
       <c r="E7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2341,7 +2374,7 @@
       <c r="B8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -2350,7 +2383,7 @@
       <c r="E8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="14" t="s">
         <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -2364,7 +2397,7 @@
       <c r="B9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2373,7 +2406,7 @@
       <c r="E9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -2387,7 +2420,7 @@
       <c r="B10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2396,7 +2429,7 @@
       <c r="E10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="14" t="s">
         <v>95</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -2410,7 +2443,7 @@
       <c r="B11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2419,7 +2452,7 @@
       <c r="E11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="14" t="s">
         <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -2433,7 +2466,7 @@
       <c r="B12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -2442,7 +2475,7 @@
       <c r="E12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="14" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2456,7 +2489,7 @@
       <c r="B13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -2465,7 +2498,7 @@
       <c r="E13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="14" t="s">
         <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -2479,7 +2512,7 @@
       <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2488,7 +2521,7 @@
       <c r="E14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="13" t="s">
         <v>106</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -2502,7 +2535,7 @@
       <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="13" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2511,7 +2544,7 @@
       <c r="E15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="13" t="s">
         <v>108</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2534,7 +2567,7 @@
       <c r="E16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="13" t="s">
         <v>110</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2552,7 +2585,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2606,7 +2639,7 @@
       <c r="B2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2615,7 +2648,7 @@
       <c r="E2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2632,7 +2665,7 @@
       <c r="B3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2641,7 +2674,7 @@
       <c r="E3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2658,7 +2691,7 @@
       <c r="B4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2667,7 +2700,7 @@
       <c r="E4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2684,7 +2717,7 @@
       <c r="B5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2693,7 +2726,7 @@
       <c r="E5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="13" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2710,7 +2743,7 @@
       <c r="B6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2719,7 +2752,7 @@
       <c r="E6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2733,7 +2766,7 @@
       <c r="B7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2742,7 +2775,7 @@
       <c r="E7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2765,7 +2798,7 @@
       <c r="E8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="13" t="s">
         <v>119</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2779,7 +2812,7 @@
       <c r="B9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2788,7 +2821,7 @@
       <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -2802,7 +2835,7 @@
       <c r="B10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -2811,7 +2844,7 @@
       <c r="E10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -2825,7 +2858,7 @@
       <c r="B11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2834,7 +2867,7 @@
       <c r="E11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="14" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -2848,7 +2881,7 @@
       <c r="B12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="14" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -2857,7 +2890,7 @@
       <c r="E12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="14" t="s">
         <v>98</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2871,7 +2904,7 @@
       <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>125</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -2880,7 +2913,7 @@
       <c r="E13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="14" t="s">
         <v>126</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -2894,7 +2927,7 @@
       <c r="B14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2903,7 +2936,7 @@
       <c r="E14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="14" t="s">
         <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -2917,7 +2950,7 @@
       <c r="B15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2926,7 +2959,7 @@
       <c r="E15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="13" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2940,7 +2973,7 @@
       <c r="B16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -2949,7 +2982,7 @@
       <c r="E16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="13" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2965,14 +2998,98 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="3" width="8.89166666666667" style="9"/>
+    <col min="4" max="4" width="17.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="55.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="41.125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3030,25 +3147,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3056,25 +3173,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3082,25 +3199,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3108,22 +3225,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3131,19 +3248,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>88</v>
@@ -3154,19 +3271,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>121</v>
@@ -3177,22 +3294,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3200,19 +3317,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>39</v>
@@ -3270,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3278,22 +3395,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3301,16 +3418,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>88</v>
@@ -3321,22 +3438,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3344,13 +3461,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>111</v>
@@ -3361,19 +3478,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="7:7">
@@ -3410,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="8400" activeTab="4"/>
+    <workbookView windowWidth="23685" windowHeight="8985" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="更新昵称" sheetId="5" r:id="rId6"/>
     <sheet name="获取用户信息" sheetId="7" r:id="rId7"/>
     <sheet name="用例编写说明" sheetId="8" r:id="rId8"/>
+    <sheet name="新建项目" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -630,14 +631,290 @@
   <si>
     <t>url(必须以/开头)</t>
   </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>前置操作 - 管理员登陆</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>新增成功</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "OK",
+    "data": {
+        "id": 107104,
+        "member_id": 123626069,
+        "title": "123!@#",
+        "amount": 100.0,
+        "loan_rate": 16.0,
+        "loan_term": 9,
+        "loan_date_type": 1,
+        "bidding_days": 5,
+        "create_time": "2021-09-03 16:58:05.0",
+        "bidding_start_time": null,
+        "full_time": null,
+        "status": 1
+    },
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>项目利率15</t>
+  </si>
+  <si>
+    <t>项目利率10.1</t>
+  </si>
+  <si>
+    <t>项目利率10.15</t>
+  </si>
+  <si>
+    <t>自动转为1位小数</t>
+  </si>
+  <si>
+    <t>借款时间1个月</t>
+  </si>
+  <si>
+    <t>借款时间10.5个月</t>
+  </si>
+  <si>
+    <t>自动转为整型</t>
+  </si>
+  <si>
+    <t>借款时间36个月</t>
+  </si>
+  <si>
+    <t>借款时间45天</t>
+  </si>
+  <si>
+    <t>借款时间20.5天</t>
+  </si>
+  <si>
+    <t>借款时间10天</t>
+  </si>
+  <si>
+    <t>竞标天数1</t>
+  </si>
+  <si>
+    <t>竞标天数10</t>
+  </si>
+  <si>
+    <t>member_id为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "msg": "用户id为空",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>title为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "msg": "标题为空",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>amount为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "msg": "借款金额为空",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>loan_rate为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "msg": "利率为空",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>loan_term为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "msg": "借款期限为空",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>loan_date_type为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "msg": "借款日期类型为空",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>bidding_days为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "msg": "竞标期限为空",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>member_id不是本人</t>
+  </si>
+  <si>
+    <t>{
+    "code": 1007,
+    "msg": "无权限访问，请检查参数",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>amount为0</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "借款金额范围错误",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>amonut类型错误</t>
+  </si>
+  <si>
+    <t>amonut小数</t>
+  </si>
+  <si>
+    <t>amonut负数</t>
+  </si>
+  <si>
+    <t>利率类型错误</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "借款利率范围错误",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>利率负数</t>
+  </si>
+  <si>
+    <t>借款时间0个月</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "借款期限单位为月的项目,期限范围为1到36个月(包含1个月和36个月)",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>借款时间37个月</t>
+  </si>
+  <si>
+    <t>借款时间0天</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "借款类型不存在",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>借款时间46天</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "借款期限单位为天的项目,期限范围为10到45天(包含10天和45天)",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>借款时间9天</t>
+  </si>
+  <si>
+    <t>loan_date_type为3</t>
+  </si>
+  <si>
+    <t>竞标天数0</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "竞标期限为1-10天",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>竞标天数11</t>
+  </si>
+  <si>
+    <t>竞标天数5.5</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "竞标期限类型错误",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>前置操作 -普通用户登陆</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -648,6 +925,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -669,25 +952,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,16 +978,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,7 +1025,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -754,15 +1033,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,14 +1056,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -802,7 +1065,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,14 +1087,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +1109,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,25 +1241,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,139 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1329,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,47 +1410,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1157,10 +1434,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,16 +1446,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,141 +1467,162 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1333,14 +1631,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1668,9 +1966,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.89166666666667" style="3"/>
+    <col min="1" max="1" width="8.89166666666667" style="13"/>
     <col min="2" max="2" width="19.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="8.55833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.55833333333333" style="13" customWidth="1"/>
     <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
     <col min="5" max="5" width="66.225" customWidth="1"/>
     <col min="6" max="6" width="53.5" customWidth="1"/>
@@ -1678,13 +1976,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1696,18 +1994,18 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:7">
-      <c r="A2" s="15">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1716,7 +2014,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1724,13 +2022,13 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:7">
-      <c r="A3" s="15">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -1739,7 +2037,7 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
@@ -1747,222 +2045,222 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="15">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="15">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="15">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="15">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="15">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="15">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="15">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="15">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="15">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="15">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="15">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
@@ -1996,13 +2294,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2014,7 +2312,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -2034,13 +2332,13 @@
       <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2057,13 +2355,13 @@
       <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2080,13 +2378,13 @@
       <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2103,13 +2401,13 @@
       <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2126,13 +2424,13 @@
       <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2149,13 +2447,13 @@
       <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2176,401 +2474,401 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5583333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.6666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.55833333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="73.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="90.5583333333333" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.1083333333333" style="4" customWidth="1"/>
-    <col min="10" max="16383" width="8.89166666666667" style="4"/>
+    <col min="1" max="1" width="7.66666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5583333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.55833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.6666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="90.5583333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.1083333333333" style="3" customWidth="1"/>
+    <col min="10" max="16383" width="8.89166666666667" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A2" s="4">
+    <row r="2" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
+    <row r="3" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
+    <row r="4" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A5" s="4">
+    <row r="5" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
+    <row r="6" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A7" s="4">
+    <row r="7" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A8" s="7">
+    <row r="8" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="9" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A10" s="7">
+    <row r="10" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A11" s="7">
+    <row r="11" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A12" s="7">
+    <row r="12" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A13" s="7">
+    <row r="13" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A14" s="4">
+    <row r="14" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A15" s="4">
+    <row r="15" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2585,407 +2883,407 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5583333333333" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.6666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="73.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="90.5583333333333" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.1083333333333" style="4" customWidth="1"/>
-    <col min="10" max="16383" width="8.89166666666667" style="4"/>
+    <col min="1" max="1" width="7.66666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5583333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.6666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="90.5583333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.1083333333333" style="3" customWidth="1"/>
+    <col min="10" max="16383" width="8.89166666666667" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A2" s="4">
+    <row r="2" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
+    <row r="3" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
+    <row r="4" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A5" s="4">
+    <row r="5" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:8">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
+    <row r="6" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A7" s="4">
+    <row r="7" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A8" s="7">
+    <row r="8" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A10" s="7">
+    <row r="10" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A11" s="7">
+    <row r="11" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A12" s="7">
+    <row r="12" s="15" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A13" s="7">
+    <row r="13" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A14" s="4">
+    <row r="14" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
-      <c r="A15" s="4">
+    <row r="15" s="3" customFormat="1" ht="14.4" customHeight="1" spans="1:7">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3000,94 +3298,94 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="3" width="8.89166666666667" style="9"/>
-    <col min="4" max="4" width="17.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="55.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="41.125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.89166666666667" style="9"/>
+    <col min="1" max="3" width="8.89166666666667" style="14"/>
+    <col min="4" max="4" width="17.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="55.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="41.125" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="11">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="19" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3115,29 +3413,29 @@
     <col min="9" max="9" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1"/>
@@ -3152,7 +3450,7 @@
       <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -3178,7 +3476,7 @@
       <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -3204,7 +3502,7 @@
       <c r="C4" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
@@ -3230,7 +3528,7 @@
       <c r="C5" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
@@ -3253,7 +3551,7 @@
       <c r="C6" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
@@ -3262,7 +3560,7 @@
       <c r="F6" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3276,7 +3574,7 @@
       <c r="C7" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
@@ -3285,7 +3583,7 @@
       <c r="F7" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3299,7 +3597,7 @@
       <c r="C8" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
@@ -3322,7 +3620,7 @@
       <c r="C9" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
@@ -3331,7 +3629,7 @@
       <c r="F9" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3361,29 +3659,29 @@
     <col min="9" max="9" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
@@ -3429,7 +3727,7 @@
       <c r="E3" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3449,10 +3747,10 @@
       <c r="E4" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="14" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3469,7 +3767,7 @@
       <c r="E5" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3486,15 +3784,15 @@
       <c r="E6" t="s">
         <v>178</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="8"/>
+      <c r="G7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3517,13 +3815,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -3535,9 +3833,890 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="54.75" customWidth="1"/>
+    <col min="8" max="8" width="37.625" customWidth="1"/>
+    <col min="9" max="9" width="31.125" customWidth="1"/>
+    <col min="10" max="10" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:10">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" ht="270" spans="1:10">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="111" customHeight="1" spans="1:7">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" ht="94.5" spans="1:7">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" ht="94.5" spans="1:7">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" ht="94.5" spans="1:7">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" ht="94.5" spans="1:7">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" ht="94.5" spans="1:7">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" ht="94.5" spans="1:7">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" ht="94.5" spans="1:7">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" ht="94.5" spans="1:7">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" ht="94.5" spans="1:7">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" ht="94.5" spans="1:7">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" ht="94.5" spans="1:7">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" ht="94.5" spans="1:7">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" ht="94.5" spans="1:7">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" ht="108" spans="1:7">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" ht="108" spans="1:7">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" ht="94.5" spans="1:7">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" ht="108" spans="1:7">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" ht="108" spans="1:7">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" ht="94.5" spans="1:7">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" ht="94.5" spans="1:7">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" ht="94.5" spans="1:7">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" ht="94.5" spans="1:7">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:7">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24165" windowHeight="10155" activeTab="7"/>
+    <workbookView windowWidth="24165" windowHeight="10155" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="331">
   <si>
     <t>id</t>
   </si>
@@ -1065,6 +1065,66 @@
 }</t>
   </si>
   <si>
+    <t>loans</t>
+  </si>
+  <si>
+    <t>无任何参数</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/loans</t>
+  </si>
+  <si>
+    <t>select * from loan limit 10</t>
+  </si>
+  <si>
+    <t>只有pangeindex=2</t>
+  </si>
+  <si>
+    <t>/loans?pageIndex=2</t>
+  </si>
+  <si>
+    <t>select * from loan limit 10*2</t>
+  </si>
+  <si>
+    <t>只有pageSize=100</t>
+  </si>
+  <si>
+    <t>/loans?pageSize=20</t>
+  </si>
+  <si>
+    <t>select * from loan limit 20</t>
+  </si>
+  <si>
+    <t>两个参数都有</t>
+  </si>
+  <si>
+    <t>/loans?pageIndex=2&amp;pageSize=20</t>
+  </si>
+  <si>
+    <t>select * from loan limit 20,40</t>
+  </si>
+  <si>
+    <t>两个参数为0时，为默认参数</t>
+  </si>
+  <si>
+    <t>/loans?pageIndex=0&amp;pageSize=0</t>
+  </si>
+  <si>
+    <t>两个参数为负数时，为默认参数</t>
+  </si>
+  <si>
+    <t>/loans?pageIndex=-1&amp;pageSize=-10</t>
+  </si>
+  <si>
+    <t>参数错误</t>
+  </si>
+  <si>
+    <t>/loans?pageIndex=a&amp;pageSize=b</t>
+  </si>
+  <si>
     <t>update_name</t>
   </si>
   <si>
@@ -1141,9 +1201,6 @@
   </si>
   <si>
     <t>获取本人用户信息成功</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>/member/#member_id#/info</t>
@@ -1203,9 +1260,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1247,6 +1304,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1254,7 +1325,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1267,8 +1346,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1285,52 +1380,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1354,14 +1403,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,7 +1411,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,7 +1441,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,7 +1456,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,7 +1528,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,163 +1630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,15 +1691,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1662,7 +1710,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1684,30 +1756,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1716,6 +1764,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1724,10 +1781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1736,133 +1793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1888,6 +1945,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1903,9 +1963,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2578,7 +2635,7 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2625,25 +2682,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2651,25 +2708,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2677,25 +2734,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2703,22 +2760,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="G5" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2726,19 +2783,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>88</v>
@@ -2749,19 +2806,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>121</v>
@@ -2772,22 +2829,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2795,19 +2852,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>273</v>
-      </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>39</v>
@@ -2873,22 +2930,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2896,16 +2953,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>88</v>
@@ -2916,22 +2973,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2939,13 +2996,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="E5" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>111</v>
@@ -2956,19 +3013,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="7:7">
@@ -2986,7 +3043,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3005,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -3272,7 +3329,7 @@
       <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3281,7 +3338,7 @@
       <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3298,7 +3355,7 @@
       <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3307,7 +3364,7 @@
       <c r="E3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3324,7 +3381,7 @@
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3333,7 +3390,7 @@
       <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -3350,7 +3407,7 @@
       <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3359,7 +3416,7 @@
       <c r="E5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3376,7 +3433,7 @@
       <c r="B6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3385,7 +3442,7 @@
       <c r="E6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3399,7 +3456,7 @@
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3408,7 +3465,7 @@
       <c r="E7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>87</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3560,7 +3617,7 @@
       <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -3569,7 +3626,7 @@
       <c r="E14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>106</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -3583,7 +3640,7 @@
       <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3592,7 +3649,7 @@
       <c r="E15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>108</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3615,7 +3672,7 @@
       <c r="E16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>110</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -3634,7 +3691,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -3687,7 +3744,7 @@
       <c r="B2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3696,7 +3753,7 @@
       <c r="E2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3713,7 +3770,7 @@
       <c r="B3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3722,7 +3779,7 @@
       <c r="E3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3739,7 +3796,7 @@
       <c r="B4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3748,7 +3805,7 @@
       <c r="E4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -3765,7 +3822,7 @@
       <c r="B5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3774,7 +3831,7 @@
       <c r="E5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3791,7 +3848,7 @@
       <c r="B6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3800,7 +3857,7 @@
       <c r="E6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3814,7 +3871,7 @@
       <c r="B7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3823,7 +3880,7 @@
       <c r="E7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3846,7 +3903,7 @@
       <c r="E8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>119</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -3998,7 +4055,7 @@
       <c r="B15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -4007,7 +4064,7 @@
       <c r="E15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -4021,7 +4078,7 @@
       <c r="B16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -4030,7 +4087,7 @@
       <c r="E16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -4170,7 +4227,7 @@
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -4209,16 +4266,16 @@
       <c r="C2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>144</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -4244,10 +4301,10 @@
       <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>150</v>
       </c>
       <c r="H3" s="20"/>
@@ -4273,7 +4330,7 @@
       <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K4" s="20"/>
@@ -4294,7 +4351,7 @@
       <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K5" s="20"/>
@@ -4315,7 +4372,7 @@
       <c r="E6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K6" s="20" t="s">
@@ -4338,7 +4395,7 @@
       <c r="E7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K7" s="20"/>
@@ -4359,7 +4416,7 @@
       <c r="E8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -4382,7 +4439,7 @@
       <c r="E9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K9" s="20"/>
@@ -4403,7 +4460,7 @@
       <c r="E10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K10" s="20"/>
@@ -4424,7 +4481,7 @@
       <c r="E11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K11" s="20" t="s">
@@ -4447,7 +4504,7 @@
       <c r="E12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K12" s="20"/>
@@ -4468,7 +4525,7 @@
       <c r="E13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K13" s="20"/>
@@ -4489,7 +4546,7 @@
       <c r="E14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K14" s="20"/>
@@ -4510,7 +4567,7 @@
       <c r="E15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K15" s="6" t="s">
@@ -4533,7 +4590,7 @@
       <c r="E16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K16" s="20" t="s">
@@ -4556,7 +4613,7 @@
       <c r="E17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K17" s="20" t="s">
@@ -4579,7 +4636,7 @@
       <c r="E18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K18" s="20" t="s">
@@ -4602,7 +4659,7 @@
       <c r="E19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K19" s="20" t="s">
@@ -4625,7 +4682,7 @@
       <c r="E20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K20" s="20" t="s">
@@ -4648,7 +4705,7 @@
       <c r="E21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K21" s="20" t="s">
@@ -4671,7 +4728,7 @@
       <c r="E22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K22" s="20" t="s">
@@ -4694,7 +4751,7 @@
       <c r="E23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K23" s="20" t="s">
@@ -4717,7 +4774,7 @@
       <c r="E24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K24" s="20" t="s">
@@ -4740,7 +4797,7 @@
       <c r="E25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K25" s="20" t="s">
@@ -4763,7 +4820,7 @@
       <c r="E26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K26" s="20" t="s">
@@ -4786,7 +4843,7 @@
       <c r="E27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K27" s="20" t="s">
@@ -4809,7 +4866,7 @@
       <c r="E28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K28" s="20" t="s">
@@ -4832,7 +4889,7 @@
       <c r="E29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K29" s="20" t="s">
@@ -4855,7 +4912,7 @@
       <c r="E30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K30" s="20" t="s">
@@ -4878,7 +4935,7 @@
       <c r="E31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K31" s="20" t="s">
@@ -4901,7 +4958,7 @@
       <c r="E32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K32" s="20" t="s">
@@ -4935,7 +4992,7 @@
       <c r="E34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K34" s="20" t="s">
@@ -4958,7 +5015,7 @@
       <c r="E35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K35" s="20" t="s">
@@ -4981,7 +5038,7 @@
       <c r="E36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K36" s="20" t="s">
@@ -5004,7 +5061,7 @@
       <c r="E37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="14" t="s">
         <v>149</v>
       </c>
       <c r="K37" s="20" t="s">
@@ -5021,13 +5078,13 @@
       <c r="C38" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="10" t="s">
         <v>203</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="10" t="s">
         <v>49</v>
       </c>
       <c r="K38" s="16"/>
@@ -5043,8 +5100,8 @@
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -5064,7 +5121,7 @@
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -5079,7 +5136,7 @@
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -5102,13 +5159,13 @@
       <c r="C2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -5133,10 +5190,10 @@
       <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>150</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -5235,10 +5292,10 @@
       <c r="E7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>136</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -5285,8 +5342,8 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5306,7 +5363,7 @@
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -5315,13 +5372,13 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -5337,7 +5394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="2:8">
+    <row r="2" ht="40.5" spans="2:8">
       <c r="B2" t="s">
         <v>141</v>
       </c>
@@ -5370,13 +5427,13 @@
       <c r="D3" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>222</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -5393,13 +5450,13 @@
       <c r="D4" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5436,13 +5493,13 @@
       <c r="D6" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5468,7 +5525,7 @@
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="6" t="s">
         <v>234</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -5520,7 +5577,7 @@
       <c r="G9" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="6" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5616,7 +5673,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="27" spans="2:8">
+    <row r="14" customFormat="1" ht="40.5" spans="2:8">
       <c r="B14" t="s">
         <v>141</v>
       </c>
@@ -5649,13 +5706,13 @@
       <c r="D15" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>222</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -5777,7 +5834,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="27" spans="2:8">
+    <row r="21" customFormat="1" ht="40.5" spans="2:8">
       <c r="B21" t="s">
         <v>141</v>
       </c>
@@ -5810,13 +5867,13 @@
       <c r="D22" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="14" t="s">
         <v>263</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -5833,13 +5890,13 @@
       <c r="D23" t="s">
         <v>223</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="14" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5899,13 +5956,13 @@
       <c r="D26" t="s">
         <v>221</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="E26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="14" t="s">
         <v>222</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -5922,17 +5979,17 @@
       <c r="D27" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="40.5" spans="2:8">
+    <row r="28" customFormat="1" ht="54" spans="2:8">
       <c r="B28" t="s">
         <v>141</v>
       </c>
@@ -5987,14 +6044,235 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="37.625" customWidth="1"/>
+    <col min="9" max="9" width="37.375" customWidth="1"/>
+    <col min="10" max="10" width="33.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24165" windowHeight="10155" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="24165" windowHeight="10155" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="385">
   <si>
     <t>id</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>SELECT * FROM  futureloan.loan WHERE member_id=#admin_member_id# order by id desc;</t>
   </si>
   <si>
     <t>{
@@ -556,46 +559,85 @@
 }</t>
   </si>
   <si>
-    <t>项目利率15</t>
-  </si>
-  <si>
     <t>项目利率10.1</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":10.1,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>项目利率10.15</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":10.15,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>自动转为1位小数</t>
   </si>
   <si>
     <t>借款时间1个月</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":1,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>借款时间10.5个月</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":10.5,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","loan_term":10}</t>
+  </si>
+  <si>
     <t>自动转为整型</t>
   </si>
   <si>
     <t>借款时间36个月</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":36,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>借款时间45天</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":45,"loan_date_type":2,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>借款时间20.5天</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":20.5,"loan_date_type":2,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK","loan_term":20}</t>
+  </si>
+  <si>
     <t>借款时间10天</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":10,"loan_date_type":2,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>竞标天数1</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":1}</t>
+  </si>
+  <si>
     <t>竞标天数10</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":10}</t>
+  </si>
+  <si>
     <t>member_id为空</t>
+  </si>
+  <si>
+    <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 1,"msg": "用户id为空"}</t>
   </si>
   <si>
     <t>{
@@ -609,6 +651,12 @@
     <t>title为空</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 1,"msg": "标题为空"}</t>
+  </si>
+  <si>
     <t>{
     "code": 1,
     "msg": "标题为空",
@@ -620,6 +668,12 @@
     <t>amount为空</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 1,"msg": "借款金额为空"}</t>
+  </si>
+  <si>
     <t>{
     "code": 1,
     "msg": "借款金额为空",
@@ -631,6 +685,12 @@
     <t>loan_rate为空</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 1,"msg": "利率为空"}</t>
+  </si>
+  <si>
     <t>{
     "code": 1,
     "msg": "利率为空",
@@ -642,6 +702,12 @@
     <t>loan_term为空</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 1,"msg": "借款期限为空"}</t>
+  </si>
+  <si>
     <t>{
     "code": 1,
     "msg": "借款期限为空",
@@ -653,6 +719,12 @@
     <t>loan_date_type为空</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 1,"msg": "借款日期类型为空"}</t>
+  </si>
+  <si>
     <t>{
     "code": 1,
     "msg": "借款日期类型为空",
@@ -664,6 +736,12 @@
     <t>bidding_days为空</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+  </si>
+  <si>
+    <t>{"code": 1,"msg": "竞标期限为空"}</t>
+  </si>
+  <si>
     <t>{
     "code": 1,
     "msg": "竞标期限为空",
@@ -675,6 +753,12 @@
     <t>member_id不是本人</t>
   </si>
   <si>
+    <t>{"member_id":123,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 1007,"msg": "无权限访问，请检查参数"}</t>
+  </si>
+  <si>
     <t>{
     "code": 1007,
     "msg": "无权限访问，请检查参数",
@@ -686,6 +770,12 @@
     <t>amount为0</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":0,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "借款金额范围错误"}</t>
+  </si>
+  <si>
     <t>{
     "code": 2,
     "msg": "借款金额范围错误",
@@ -697,13 +787,28 @@
     <t>amonut类型错误</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":"abc","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>amonut小数</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000.55,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>amonut负数</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>利率类型错误</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":"abc","loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "借款利率范围错误"}</t>
   </si>
   <si>
     <t>{
@@ -717,7 +822,16 @@
     <t>利率负数</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":-12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>借款时间0个月</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":0,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "借款期限单位为月的项目,期限范围为1到36个月(包含1个月和36个月)"}</t>
   </si>
   <si>
     <t>{
@@ -731,7 +845,39 @@
     <t>借款时间37个月</t>
   </si>
   <si>
-    <t>借款时间0天</t>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":37,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>借款时间46天</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":46,"loan_date_type":2,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "借款期限单位为天的项目,期限范围为10到45天(包含10天和45天)"}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 2,
+    "msg": "借款期限单位为天的项目,期限范围为10到45天(包含10天和45天)",
+    "data": null,
+    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
+}</t>
+  </si>
+  <si>
+    <t>借款时间9天</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":9,"loan_date_type":2,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>loan_date_type为3</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":3,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "借款类型不存在"}</t>
   </si>
   <si>
     <t>{
@@ -742,24 +888,13 @@
 }</t>
   </si>
   <si>
-    <t>借款时间46天</t>
-  </si>
-  <si>
-    <t>{
-    "code": 2,
-    "msg": "借款期限单位为天的项目,期限范围为10到45天(包含10天和45天)",
-    "data": null,
-    "copyright": "Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved"
-}</t>
-  </si>
-  <si>
-    <t>借款时间9天</t>
-  </si>
-  <si>
-    <t>loan_date_type为3</t>
-  </si>
-  <si>
     <t>竞标天数0</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":0}</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "竞标期限为1-10天"}</t>
   </si>
   <si>
     <t>{
@@ -773,7 +908,16 @@
     <t>竞标天数11</t>
   </si>
   <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":11}</t>
+  </si>
+  <si>
     <t>竞标天数5.5</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5.5}</t>
+  </si>
+  <si>
+    <t>{"code": 2,"msg": "竞标期限类型错误"}</t>
   </si>
   <si>
     <t>{
@@ -787,6 +931,34 @@
     <t>前置操作 -普通用户登陆</t>
   </si>
   <si>
+    <t>{"mobile_phone":"#user#","pwd":"#passwd#"}</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>SELECT * FROM  futureloan.loan WHERE member_id=#member_id# order by id desc;</t>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "OK",
+    "data": {
+        "id": 110246,
+        "member_id": 123626069,
+        "title": "123",
+        "amount": 1000.0,
+        "loan_rate": 10.0,
+        "loan_term": 1,
+        "loan_date_type": 1,
+        "bidding_days": 5,
+        "create_time": "2021-09-07 14:20:02.0",
+        "bidding_start_time": null,
+        "full_time": null,
+        "status": 1
+    },</t>
+  </si>
+  <si>
     <t>新增项目成功</t>
   </si>
   <si>
@@ -796,7 +968,7 @@
     <t>audit</t>
   </si>
   <si>
-    <t>审核通过</t>
+    <t>审核通过，status=2</t>
   </si>
   <si>
     <t>patch</t>
@@ -806,6 +978,9 @@
   </si>
   <si>
     <t>{"loan_id":"#loan_id#","approved_or_not":true}</t>
+  </si>
+  <si>
+    <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
   </si>
   <si>
     <t>{
@@ -816,13 +991,16 @@
 }</t>
   </si>
   <si>
-    <t>审核不通过</t>
+    <t>审核不通过，status=5</t>
   </si>
   <si>
     <t>{"loan_id":#loan_id#,"approved_or_not":false}</t>
   </si>
   <si>
     <t>项目已审核状态</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"项目不在审核中状态"}</t>
   </si>
   <si>
     <t>{
@@ -850,6 +1028,9 @@
     <t>{"loan_id":#loan_id#,"approved_or_not":true}</t>
   </si>
   <si>
+    <t>{"code":2,"msg":"普通会员不能审核项目，请使用管理员账号"}</t>
+  </si>
+  <si>
     <t>管理员登录</t>
   </si>
   <si>
@@ -869,9 +1050,6 @@
   </si>
   <si>
     <t>普通会员登录</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#user#","pwd":"#passwd#"}</t>
   </si>
   <si>
     <t>普通会员充值</t>
@@ -915,7 +1093,8 @@
     <t>刚好投满标</t>
   </si>
   <si>
-    <t>select * from repayment where invest_id=#invest_id#;把所有投资记录写入回款表</t>
+    <t>select * from repayment where invest_id=#invest_id#;
+SELECT * FROM  futureloan.loan WHERE loan_id=#loan_id#;</t>
   </si>
   <si>
     <t>满标后继续投资</t>
@@ -1303,6 +1482,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1311,14 +1498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,15 +1520,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,26 +1597,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1424,24 +1619,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,25 +1635,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,7 +1683,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,13 +1725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,13 +1743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,7 +1755,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,91 +1815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,6 +1855,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1687,6 +1881,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,8 +1920,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1720,21 +1934,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,26 +1952,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1781,10 +1960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1793,19 +1972,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1814,112 +1993,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1945,9 +2124,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1963,6 +2139,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2682,25 +2861,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2708,25 +2887,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2734,25 +2913,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="H4" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2760,22 +2939,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="G5" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2783,19 +2962,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>88</v>
@@ -2806,19 +2985,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>121</v>
@@ -2829,22 +3008,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="C8" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="G8" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2852,19 +3031,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>39</v>
@@ -2930,22 +3109,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2953,16 +3132,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>88</v>
@@ -2973,22 +3152,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2996,13 +3175,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>111</v>
@@ -3013,19 +3192,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="E6" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="7:7">
@@ -3062,7 +3241,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -3329,7 +3508,7 @@
       <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3338,7 +3517,7 @@
       <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3355,7 +3534,7 @@
       <c r="B3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3364,7 +3543,7 @@
       <c r="E3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3381,7 +3560,7 @@
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3390,7 +3569,7 @@
       <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -3407,7 +3586,7 @@
       <c r="B5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3416,7 +3595,7 @@
       <c r="E5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3433,7 +3612,7 @@
       <c r="B6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3442,7 +3621,7 @@
       <c r="E6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3456,7 +3635,7 @@
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3465,7 +3644,7 @@
       <c r="E7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>87</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3617,7 +3796,7 @@
       <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -3626,7 +3805,7 @@
       <c r="E14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>106</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -3640,7 +3819,7 @@
       <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3649,7 +3828,7 @@
       <c r="E15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>108</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3672,7 +3851,7 @@
       <c r="E16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>110</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -3690,8 +3869,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -3744,7 +3923,7 @@
       <c r="B2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3753,7 +3932,7 @@
       <c r="E2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -3770,7 +3949,7 @@
       <c r="B3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3779,7 +3958,7 @@
       <c r="E3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3796,7 +3975,7 @@
       <c r="B4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3805,7 +3984,7 @@
       <c r="E4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>80</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -3822,7 +4001,7 @@
       <c r="B5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3831,7 +4010,7 @@
       <c r="E5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3848,7 +4027,7 @@
       <c r="B6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3857,7 +4036,7 @@
       <c r="E6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3871,7 +4050,7 @@
       <c r="B7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3880,7 +4059,7 @@
       <c r="E7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>118</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3903,7 +4082,7 @@
       <c r="E8" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -4055,7 +4234,7 @@
       <c r="B15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -4064,7 +4243,7 @@
       <c r="E15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -4078,7 +4257,7 @@
       <c r="B16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -4087,7 +4266,7 @@
       <c r="E16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -4205,10 +4384,10 @@
   <sheetPr/>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H2"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4217,8 +4396,8 @@
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="60.25" customWidth="1"/>
-    <col min="8" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="31.125" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="30.75" customWidth="1"/>
     <col min="10" max="10" width="44.625" customWidth="1"/>
     <col min="11" max="11" width="54.75" customWidth="1"/>
   </cols>
@@ -4227,7 +4406,7 @@
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -4258,7 +4437,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:11">
+    <row r="2" ht="40.5" spans="1:11">
       <c r="A2" s="4"/>
       <c r="B2" s="16" t="s">
         <v>141</v>
@@ -4266,16 +4445,16 @@
       <c r="C2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -4301,20 +4480,24 @@
       <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>150</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="K3" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:11">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4325,17 +4508,26 @@
         <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" ht="40.5" spans="1:11">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4346,17 +4538,28 @@
         <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="G5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:11">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4367,19 +4570,26 @@
         <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="G6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:11">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4390,17 +4600,28 @@
         <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="G7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:11">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4411,19 +4632,26 @@
         <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="G8" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:11">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4434,17 +4662,26 @@
         <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G9" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" ht="40.5" spans="1:11">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -4455,17 +4692,28 @@
         <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="G10" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:11">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -4476,19 +4724,26 @@
         <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="G11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" ht="40.5" spans="1:11">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -4499,17 +4754,26 @@
         <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G12" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" ht="40.5" spans="1:11">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -4520,17 +4784,26 @@
         <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G13" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" ht="111" customHeight="1" spans="1:11">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -4541,17 +4814,25 @@
         <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" ht="111" customHeight="1" spans="1:11">
+      <c r="G14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" ht="94.5" spans="1:11">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -4562,16 +4843,22 @@
         <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>166</v>
+      <c r="G15" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="1:11">
@@ -4585,16 +4872,22 @@
         <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G16" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" t="s">
+        <v>187</v>
+      </c>
       <c r="K16" s="20" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" ht="94.5" spans="1:11">
@@ -4608,16 +4901,22 @@
         <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G17" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" t="s">
+        <v>191</v>
+      </c>
       <c r="K17" s="20" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" ht="94.5" spans="1:11">
@@ -4631,16 +4930,22 @@
         <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G18" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" t="s">
+        <v>195</v>
+      </c>
       <c r="K18" s="20" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" ht="94.5" spans="1:11">
@@ -4654,16 +4959,22 @@
         <v>147</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G19" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" t="s">
+        <v>199</v>
+      </c>
       <c r="K19" s="20" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" ht="94.5" spans="1:11">
@@ -4677,16 +4988,22 @@
         <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G20" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
       <c r="K20" s="20" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" ht="94.5" spans="1:11">
@@ -4700,16 +5017,22 @@
         <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G21" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
       <c r="K21" s="20" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" ht="94.5" spans="1:11">
@@ -4723,16 +5046,22 @@
         <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
       <c r="K22" s="20" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="1:11">
@@ -4746,16 +5075,22 @@
         <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G23" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
       <c r="K23" s="20" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" ht="94.5" spans="1:11">
@@ -4769,16 +5104,22 @@
         <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G24" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
       <c r="K24" s="20" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" ht="94.5" spans="1:11">
@@ -4792,16 +5133,22 @@
         <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G25" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
       <c r="K25" s="20" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" ht="94.5" spans="1:11">
@@ -4815,16 +5162,22 @@
         <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G26" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
       <c r="K26" s="20" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" ht="94.5" spans="1:11">
@@ -4838,19 +5191,25 @@
         <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G27" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
       <c r="K27" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" ht="94.5" spans="1:11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" ht="108" spans="1:11">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -4861,16 +5220,22 @@
         <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G28" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
       <c r="K28" s="20" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" ht="108" spans="1:11">
@@ -4884,16 +5249,22 @@
         <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G29" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
       <c r="K29" s="20" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" ht="108" spans="1:11">
@@ -4907,19 +5278,25 @@
         <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G30" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
       <c r="K30" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" ht="94.5" spans="1:11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" ht="108" spans="1:11">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -4930,19 +5307,25 @@
         <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G31" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
       <c r="K31" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" ht="108" spans="1:11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" ht="94.5" spans="1:11">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -4953,27 +5336,51 @@
         <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G32" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
       <c r="K32" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" ht="108" spans="1:11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" ht="94.5" spans="1:11">
       <c r="A33" s="4">
         <v>31</v>
       </c>
+      <c r="B33" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>241</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I33" t="s">
+        <v>243</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" ht="94.5" spans="1:11">
@@ -4987,16 +5394,22 @@
         <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G34" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" t="s">
+        <v>243</v>
+      </c>
       <c r="K34" s="20" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" ht="94.5" spans="1:11">
@@ -5010,44 +5423,51 @@
         <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="G35" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
       <c r="K35" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" ht="94.5" spans="1:11">
-      <c r="A36" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="2:11">
+      <c r="B36" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" ht="62" customHeight="1" spans="1:11">
+      <c r="A37" s="4">
         <v>34</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" ht="94.5" spans="1:11">
-      <c r="A37" s="4">
-        <v>35</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>146</v>
@@ -5055,39 +5475,30 @@
       <c r="C37" t="s">
         <v>147</v>
       </c>
-      <c r="D37" t="s">
-        <v>201</v>
+      <c r="D37" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="1:11">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="16"/>
+      <c r="G37" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5101,7 +5512,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -5111,9 +5522,9 @@
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="39.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="39.5" customWidth="1"/>
-    <col min="9" max="9" width="45.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="9" max="9" width="35.5" customWidth="1"/>
+    <col min="10" max="10" width="26.625" customWidth="1"/>
     <col min="11" max="11" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5121,7 +5532,7 @@
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -5136,7 +5547,7 @@
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -5159,13 +5570,13 @@
       <c r="C2" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -5185,19 +5596,19 @@
         <v>147</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>150</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="K3" s="16"/>
     </row>
@@ -5209,22 +5620,28 @@
         <v>146</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>210</v>
+        <v>262</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" ht="94.5" spans="1:11">
@@ -5235,22 +5652,28 @@
         <v>146</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>213</v>
+        <v>266</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="1:11">
@@ -5261,22 +5684,25 @@
         <v>146</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>213</v>
+        <v>266</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>268</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" ht="107" customHeight="1" spans="2:11">
@@ -5287,22 +5713,22 @@
         <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>136</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>137</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" ht="108" spans="1:11">
@@ -5313,22 +5739,25 @@
         <v>146</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>219</v>
+        <v>273</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5342,8 +5771,8 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5363,7 +5792,7 @@
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -5372,13 +5801,13 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -5402,7 +5831,7 @@
         <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -5425,19 +5854,19 @@
         <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>222</v>
+      <c r="G3" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -5445,19 +5874,19 @@
         <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>225</v>
+        <v>278</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5" ht="27" spans="2:8">
@@ -5468,7 +5897,7 @@
         <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -5477,7 +5906,7 @@
         <v>49</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>137</v>
@@ -5491,16 +5920,16 @@
         <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>229</v>
+      <c r="G6" s="13" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="7" ht="54" customHeight="1" spans="2:11">
@@ -5508,54 +5937,57 @@
         <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" ht="216" spans="2:11">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" ht="105" customHeight="1" spans="2:11">
       <c r="B8" t="s">
         <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J8" t="s">
-        <v>237</v>
+        <v>287</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:11">
@@ -5563,22 +5995,22 @@
         <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" ht="108" spans="2:11">
@@ -5586,22 +6018,22 @@
         <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" ht="108" spans="2:11">
@@ -5609,22 +6041,22 @@
         <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" ht="108" spans="2:11">
@@ -5632,22 +6064,22 @@
         <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" ht="108" spans="2:11">
@@ -5655,22 +6087,22 @@
         <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="40.5" spans="2:8">
@@ -5681,7 +6113,7 @@
         <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -5704,19 +6136,19 @@
         <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>222</v>
+      <c r="G15" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" ht="108" spans="2:11">
@@ -5724,22 +6156,22 @@
         <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" ht="67.5" spans="2:11">
@@ -5747,22 +6179,22 @@
         <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" ht="121.5" spans="2:11">
@@ -5770,22 +6202,22 @@
         <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" ht="121.5" spans="2:11">
@@ -5793,22 +6225,22 @@
         <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" ht="108" spans="2:11">
@@ -5816,22 +6248,22 @@
         <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="40.5" spans="2:8">
@@ -5842,7 +6274,7 @@
         <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -5865,19 +6297,19 @@
         <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>263</v>
+      <c r="G22" s="13" t="s">
+        <v>317</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -5885,19 +6317,19 @@
         <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>225</v>
+        <v>278</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="24" ht="121.5" spans="2:11">
@@ -5905,22 +6337,22 @@
         <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="40.5" spans="2:8">
@@ -5931,7 +6363,7 @@
         <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -5954,19 +6386,19 @@
         <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>222</v>
+      <c r="G26" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -5974,19 +6406,19 @@
         <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>225</v>
+        <v>278</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="54" spans="2:8">
@@ -5997,7 +6429,7 @@
         <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -6006,10 +6438,10 @@
         <v>49</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" ht="108" spans="2:11">
@@ -6017,22 +6449,22 @@
         <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6046,14 +6478,14 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="6" max="6" width="32.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="8" max="8" width="37.625" customWidth="1"/>
     <col min="9" max="9" width="37.375" customWidth="1"/>
@@ -6064,7 +6496,7 @@
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -6076,10 +6508,10 @@
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -6100,23 +6532,22 @@
         <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="D2" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2"/>
+        <v>328</v>
+      </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6127,22 +6558,22 @@
         <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6153,22 +6584,22 @@
         <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6179,22 +6610,22 @@
         <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F5" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6205,22 +6636,22 @@
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6231,22 +6662,22 @@
         <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6257,16 +6688,16 @@
         <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="H8" t="s">
         <v>121</v>
